--- a/tut05/output/0401ME22.xlsx
+++ b/tut05/output/0401ME22.xlsx
@@ -553,19 +553,19 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>5.363636363636363</v>
+        <v>5.36</v>
       </c>
       <c r="D6" t="n">
-        <v>6.404255319148936</v>
+        <v>6.4</v>
       </c>
       <c r="E6" t="n">
-        <v>6.428571428571429</v>
+        <v>6.43</v>
       </c>
       <c r="F6" t="n">
-        <v>4.956521739130435</v>
+        <v>4.96</v>
       </c>
       <c r="G6" t="n">
-        <v>5.826086956521739</v>
+        <v>5.83</v>
       </c>
       <c r="H6" t="n">
         <v>7.65</v>
@@ -615,25 +615,25 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>5.698924731182796</v>
+        <v>5.7</v>
       </c>
       <c r="D8" t="n">
-        <v>5.935714285714286</v>
+        <v>5.94</v>
       </c>
       <c r="E8" t="n">
-        <v>6.063492063492063</v>
+        <v>6.06</v>
       </c>
       <c r="F8" t="n">
-        <v>5.846808510638298</v>
+        <v>5.85</v>
       </c>
       <c r="G8" t="n">
-        <v>5.843416370106762</v>
+        <v>5.84</v>
       </c>
       <c r="H8" t="n">
-        <v>6.068535825545172</v>
+        <v>6.07</v>
       </c>
       <c r="I8" t="n">
-        <v>6.155124653739612</v>
+        <v>6.16</v>
       </c>
     </row>
   </sheetData>
